--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainSourceDelphi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA13259-BF02-4B0F-B1F3-AB40FF188E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA39B999-54EF-4253-949C-8B038C231DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>bag</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>bug- check db for bug</t>
+  </si>
+  <si>
+    <t>sourcecontrol</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E9AD-54F7-465D-9348-2118ABA3124E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,6 +622,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14030118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14030118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainSourceDelphi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA39B999-54EF-4253-949C-8B038C231DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C7EB30-7D6E-4A42-9F02-43BADE6D3ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>bag</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>sourcecontrol</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,6 +646,9 @@
       <c r="B13" s="1">
         <v>14030118</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainSourceDelphi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C7EB30-7D6E-4A42-9F02-43BADE6D3ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA13259-BF02-4B0F-B1F3-AB40FF188E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>bag</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>bug- check db for bug</t>
-  </si>
-  <si>
-    <t>sourcecontrol</t>
-  </si>
-  <si>
-    <t>set</t>
   </si>
 </sst>
 </file>
@@ -469,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E9AD-54F7-465D-9348-2118ABA3124E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,31 +619,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>14030118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14030118</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA13259-BF02-4B0F-B1F3-AB40FF188E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEA9A5-DAA3-49C0-B6C7-9A101EBF9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>bag</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>bug- check db for bug</t>
+  </si>
+  <si>
+    <t>source control</t>
+  </si>
+  <si>
+    <t>search for component</t>
+  </si>
+  <si>
+    <t>bug - dabir - word - file temp hazf nemishod</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E9AD-54F7-465D-9348-2118ABA3124E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,6 +628,47 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14030118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14030118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14030119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14030119</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEA9A5-DAA3-49C0-B6C7-9A101EBF9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994877EB-44B5-4E41-A374-2486D0EB4A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>bag</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>bug - dabir - word - file temp hazf nemishod</t>
+  </si>
+  <si>
+    <t>cash - bug sode seporde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change </t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E9AD-54F7-465D-9348-2118ABA3124E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,6 +675,31 @@
         <v>120</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14030120</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14030121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Buglist.xlsx
+++ b/Buglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\matin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994877EB-44B5-4E41-A374-2486D0EB4A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B06EC3D-0EEA-4AFB-9E0E-E9858CBFA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4C2BE1E3-13A9-4BC0-A071-10B1C47CD0AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>bag</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash- bug mojoudi </t>
+  </si>
+  <si>
+    <t>run script - from auto script</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46E9AD-54F7-465D-9348-2118ABA3124E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,6 +706,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14030121</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
